--- a/src/P02_data/T02_af/S12_2_af_peak.xlsx
+++ b/src/P02_data/T02_af/S12_2_af_peak.xlsx
@@ -1786,19 +1786,19 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>33.86</v>
+        <v>28.86</v>
       </c>
       <c r="G48" t="n">
         <v>43.86</v>
       </c>
       <c r="H48" t="n">
-        <v>3386</v>
+        <v>2886</v>
       </c>
       <c r="I48" t="n">
         <v>4386</v>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1814,19 +1814,19 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>33.87</v>
+        <v>28.87</v>
       </c>
       <c r="G49" t="n">
         <v>48.87</v>
       </c>
       <c r="H49" t="n">
-        <v>3387</v>
+        <v>2887</v>
       </c>
       <c r="I49" t="n">
         <v>4887</v>
       </c>
       <c r="J49" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1842,19 +1842,19 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.3900000000000006</v>
+        <v>28.18</v>
       </c>
       <c r="G50" t="n">
-        <v>19.61</v>
+        <v>38.18</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2818</v>
       </c>
       <c r="I50" t="n">
-        <v>1961</v>
+        <v>3818</v>
       </c>
       <c r="J50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1870,19 +1870,19 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>33.28</v>
+        <v>28.28</v>
       </c>
       <c r="G51" t="n">
         <v>43.28</v>
       </c>
       <c r="H51" t="n">
-        <v>3328</v>
+        <v>2828</v>
       </c>
       <c r="I51" t="n">
         <v>4328</v>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1898,19 +1898,19 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52" t="n">
         <v>49</v>
       </c>
       <c r="H52" t="n">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="I52" t="n">
         <v>4900</v>
       </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">

--- a/src/P02_data/T02_af/S12_2_af_peak.xlsx
+++ b/src/P02_data/T02_af/S12_2_af_peak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>dwell_time_actual</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pre_dwell_time_start</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pre_dwell_time_start_idx</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pre_dwell_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -512,6 +527,15 @@
       <c r="J2" t="n">
         <v>10</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.8399999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -540,6 +564,15 @@
       <c r="J3" t="n">
         <v>15</v>
       </c>
+      <c r="K3" t="n">
+        <v>-1.780000000000005</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -568,6 +601,15 @@
       <c r="J4" t="n">
         <v>20</v>
       </c>
+      <c r="K4" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -596,6 +638,15 @@
       <c r="J5" t="n">
         <v>10</v>
       </c>
+      <c r="K5" t="n">
+        <v>-2.760000000000002</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +675,15 @@
       <c r="J6" t="n">
         <v>15</v>
       </c>
+      <c r="K6" t="n">
+        <v>-1.949999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -652,6 +712,15 @@
       <c r="J7" t="n">
         <v>20</v>
       </c>
+      <c r="K7" t="n">
+        <v>-5.740000000000006</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -680,6 +749,15 @@
       <c r="J8" t="n">
         <v>10</v>
       </c>
+      <c r="K8" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -708,6 +786,15 @@
       <c r="J9" t="n">
         <v>15</v>
       </c>
+      <c r="K9" t="n">
+        <v>-3.500000000000004</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -736,6 +823,15 @@
       <c r="J10" t="n">
         <v>20</v>
       </c>
+      <c r="K10" t="n">
+        <v>-1.530000000000005</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -764,6 +860,15 @@
       <c r="J11" t="n">
         <v>10</v>
       </c>
+      <c r="K11" t="n">
+        <v>-4.080000000000002</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -792,6 +897,15 @@
       <c r="J12" t="n">
         <v>15</v>
       </c>
+      <c r="K12" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -820,6 +934,15 @@
       <c r="J13" t="n">
         <v>20</v>
       </c>
+      <c r="K13" t="n">
+        <v>-6.600000000000005</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -848,6 +971,15 @@
       <c r="J14" t="n">
         <v>10</v>
       </c>
+      <c r="K14" t="n">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -876,6 +1008,15 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
+      <c r="K15" t="n">
+        <v>-1.210000000000004</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -904,6 +1045,15 @@
       <c r="J16" t="n">
         <v>20</v>
       </c>
+      <c r="K16" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -932,6 +1082,15 @@
       <c r="J17" t="n">
         <v>10</v>
       </c>
+      <c r="K17" t="n">
+        <v>-5.940000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -960,6 +1119,15 @@
       <c r="J18" t="n">
         <v>15</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.5400000000000027</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -988,6 +1156,15 @@
       <c r="J19" t="n">
         <v>20</v>
       </c>
+      <c r="K19" t="n">
+        <v>-3.530000000000005</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1016,6 +1193,15 @@
       <c r="J20" t="n">
         <v>10</v>
       </c>
+      <c r="K20" t="n">
+        <v>-2.110000000000003</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1044,6 +1230,15 @@
       <c r="J21" t="n">
         <v>15</v>
       </c>
+      <c r="K21" t="n">
+        <v>-2.699999999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1072,6 +1267,15 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
+      <c r="K22" t="n">
+        <v>-1.870000000000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1100,6 +1304,15 @@
       <c r="J23" t="n">
         <v>10</v>
       </c>
+      <c r="K23" t="n">
+        <v>-0.620000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1341,15 @@
       <c r="J24" t="n">
         <v>15</v>
       </c>
+      <c r="K24" t="n">
+        <v>-3.740000000000006</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1156,6 +1378,15 @@
       <c r="J25" t="n">
         <v>20</v>
       </c>
+      <c r="K25" t="n">
+        <v>-1.059999999999999</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1184,6 +1415,15 @@
       <c r="J26" t="n">
         <v>10</v>
       </c>
+      <c r="K26" t="n">
+        <v>-1.879999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1212,6 +1452,15 @@
       <c r="J27" t="n">
         <v>15</v>
       </c>
+      <c r="K27" t="n">
+        <v>-1.250000000000004</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1240,6 +1489,15 @@
       <c r="J28" t="n">
         <v>20</v>
       </c>
+      <c r="K28" t="n">
+        <v>-0.9400000000000013</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1268,6 +1526,15 @@
       <c r="J29" t="n">
         <v>10</v>
       </c>
+      <c r="K29" t="n">
+        <v>-0.9200000000000053</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1296,6 +1563,15 @@
       <c r="J30" t="n">
         <v>15</v>
       </c>
+      <c r="K30" t="n">
+        <v>-1.570000000000004</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1324,6 +1600,15 @@
       <c r="J31" t="n">
         <v>20</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.7900000000000027</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1352,6 +1637,15 @@
       <c r="J32" t="n">
         <v>10</v>
       </c>
+      <c r="K32" t="n">
+        <v>-0.9800000000000004</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1380,6 +1674,15 @@
       <c r="J33" t="n">
         <v>15</v>
       </c>
+      <c r="K33" t="n">
+        <v>-0.5800000000000018</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1408,6 +1711,15 @@
       <c r="J34" t="n">
         <v>20</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.5400000000000027</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1436,6 +1748,15 @@
       <c r="J35" t="n">
         <v>10</v>
       </c>
+      <c r="K35" t="n">
+        <v>-1.790000000000003</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1464,6 +1785,15 @@
       <c r="J36" t="n">
         <v>15</v>
       </c>
+      <c r="K36" t="n">
+        <v>-0.7300000000000004</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1492,6 +1822,15 @@
       <c r="J37" t="n">
         <v>20</v>
       </c>
+      <c r="K37" t="n">
+        <v>-0.7200000000000024</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1520,6 +1859,15 @@
       <c r="J38" t="n">
         <v>10</v>
       </c>
+      <c r="K38" t="n">
+        <v>-1.650000000000002</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1548,6 +1896,15 @@
       <c r="J39" t="n">
         <v>15</v>
       </c>
+      <c r="K39" t="n">
+        <v>-0.5700000000000038</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1576,6 +1933,15 @@
       <c r="J40" t="n">
         <v>20</v>
       </c>
+      <c r="K40" t="n">
+        <v>-0.5500000000000007</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1604,6 +1970,15 @@
       <c r="J41" t="n">
         <v>10</v>
       </c>
+      <c r="K41" t="n">
+        <v>-0.629999999999999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1632,6 +2007,15 @@
       <c r="J42" t="n">
         <v>15</v>
       </c>
+      <c r="K42" t="n">
+        <v>-0.6600000000000001</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1660,6 +2044,15 @@
       <c r="J43" t="n">
         <v>20</v>
       </c>
+      <c r="K43" t="n">
+        <v>-0.4000000000000021</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1688,6 +2081,15 @@
       <c r="J44" t="n">
         <v>10</v>
       </c>
+      <c r="K44" t="n">
+        <v>-0.8099999999999987</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1716,6 +2118,15 @@
       <c r="J45" t="n">
         <v>15</v>
       </c>
+      <c r="K45" t="n">
+        <v>-0.5300000000000047</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1744,6 +2155,15 @@
       <c r="J46" t="n">
         <v>20</v>
       </c>
+      <c r="K46" t="n">
+        <v>-0.5700000000000038</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1772,6 +2192,15 @@
       <c r="J47" t="n">
         <v>10</v>
       </c>
+      <c r="K47" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1800,6 +2229,15 @@
       <c r="J48" t="n">
         <v>15</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.5400000000000027</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1828,6 +2266,15 @@
       <c r="J49" t="n">
         <v>20</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.5300000000000047</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1856,6 +2303,15 @@
       <c r="J50" t="n">
         <v>10</v>
       </c>
+      <c r="K50" t="n">
+        <v>-1.220000000000002</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1884,6 +2340,15 @@
       <c r="J51" t="n">
         <v>15</v>
       </c>
+      <c r="K51" t="n">
+        <v>-1.120000000000001</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1912,6 +2377,15 @@
       <c r="J52" t="n">
         <v>20</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.4000000000000021</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1940,6 +2414,15 @@
       <c r="J53" t="n">
         <v>10</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1968,6 +2451,15 @@
       <c r="J54" t="n">
         <v>15</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.5899999999999999</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1995,6 +2487,15 @@
       </c>
       <c r="J55" t="n">
         <v>20</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.5899999999999999</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
